--- a/PSS/test_output/Design_results.xlsx
+++ b/PSS/test_output/Design_results.xlsx
@@ -498,26 +498,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>Cgl1436_1113_CAA_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCCAACAGCTCCTCCTGGGC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACCAACGCGCACGGAAATCGCGGACAGGCCTTCACGAC</t>
+          <t>ATCACCACCACTCAGACGGAGGGTCTGTTTAATGATGCAGCC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGT</t>
+          <t>GAGCTCGGTACCCGGGGATCCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGAT</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1045</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4">
@@ -526,26 +526,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>Cgl2342_213_GCA_ins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCGTTTTACCGGACACGCGC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GCGCACGGAAATAACGCGCGCGGACAGGCCTTCACGAC</t>
+          <t>GGTGCCTTTTCATGCAGCAAAGAATGATCGTTGCTGGGT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5">
@@ -554,26 +554,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1790_1647_TCC_sub</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCGTCAGCGACACGACGAGT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AACGCGCACGGAAATGGACGCGGACAGGCCTTCACGAC</t>
+          <t>GCGCGAAGAAGAATAAAATAAGATTATGGCCGCGCTGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTT</t>
+          <t>GAGCTCGGTACCCGGGGATCGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6">
@@ -582,26 +582,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>Cgl1386_327_18to15_sub</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>GAGCTCGGTACCCGGGGATCCCGTCTGACTACCCCAGAGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CTATCCGTATGTGTCTCTCCGCGGACAGGCCTTCACGACAGTC</t>
+          <t>TTAACCGCGCCACGCCTTAGCCACCTTCTGATTCTTCA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAG</t>
+          <t>GAGCTCGGTACCCGGGGATCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1089</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7">
@@ -610,26 +610,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>GAGCTCGGTACCCGGGGATCAGTATCATCGCAACCCGCAT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CGTGCAACGGCCCCTTGCGCCAGCTTGGGGCCTGAGGCCCAAAAATACGCAGCTCCGCGGACAGGCCTTCACGACAGTC</t>
+          <t>CATTGTGTGGCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACG</t>
+          <t>GAGCTCGGTACCCGGGGATCAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATG</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1125</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8">
@@ -638,26 +638,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del</t>
+          <t>Cgl0141_cds_del</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGGCAGCGAAACGTCAACG</t>
+          <t>GAGCTCGGTACCCGGGGATCGGACTCGTGCTGGCAGTC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ACGCGAGAAACGGCAAAATAGGCCCCAATTCGACGGTT</t>
+          <t>ATGTACAGGCAATTGTTTTGGCACGACTTGATGTGAGCC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGT</t>
+          <t>GAGCTCGGTACCCGGGGATCGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACAT</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1003</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9">
@@ -666,26 +666,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>153019_ecoil_ybeL_ins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>GAGCTCGGTACCCGGGGATCTCGTTGCAGTCGGACTCATC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CGCGGACAGGCCTTCACG</t>
+          <t>GAACGAGTATTTGTATTTCAATGTC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>GAGCTCGGTACCCGGGGATCTCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1070</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="10">
@@ -694,26 +694,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub</t>
+          <t>Cgl0851_ecoli_pgi_sub</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTC</t>
+          <t>GAGCTCGGTACCCGGGGATCAGGAACTCAACGCAGAAGCA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AACGCGAGAAACGGCAAAAT</t>
+          <t>TCGCTTGCTTATAGGGTCAGG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
+          <t>GAGCTCGGTACCCGGGGATCAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1069</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -796,26 +796,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>Cgl1436_1113_CAA_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCGCAGGTGCGCTATCCCAA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCC</t>
+          <t>TCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTG</t>
+          <t>TCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="4">
@@ -824,26 +824,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>Cgl2342_213_GCA_ins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCCGTGCAGGTCCCTGGTTT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGA</t>
+          <t>TTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGAC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTG</t>
+          <t>TTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1017</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5">
@@ -852,26 +852,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1790_1647_TCC_sub</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCACTGGTGGCGCAGAAACA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGG</t>
+          <t>TATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTG</t>
+          <t>TATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="6">
@@ -880,26 +880,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>Cgl1386_327_18to15_sub</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCGCACAACAAGCTGGCGTT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCG</t>
+          <t>CTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTG</t>
+          <t>CTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7">
@@ -908,26 +908,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCACGTCCTTCCACGGCTTG</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTT</t>
+          <t>GGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTG</t>
+          <t>GGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1067</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="8">
@@ -936,26 +936,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del</t>
+          <t>Cgl0141_cds_del</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCGGCCATAACCCACCAGG</t>
+          <t>CAGGTCGACTCTAGAGGATCTCAAAGCGCCAGCCATCA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGC</t>
+          <t>CAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGGATCCTCTAGAGTCGACCTG</t>
+          <t>CAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGAGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1055</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9">
@@ -964,26 +964,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>153019_ecoil_ybeL_ins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCCGCACGCCTCATGGATTC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTG</t>
+          <t>GCTTTTAAGTTTTCTCGGTGATCC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTG</t>
+          <t>GCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1012</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="10">
@@ -992,26 +992,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub</t>
+          <t>Cgl0851_ecoli_pgi_sub</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCGGCCATAACCCACCAGG</t>
+          <t>CAGGTCGACTCTAGAGGATCTAGCAACGAACTCGCCGG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AGCGCCTTACTTAACCCGC</t>
+          <t>GAAAACTCCTTTATTGTCGT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGGATCCTCTAGAGTCGACCTG</t>
+          <t>GAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1034</v>
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -1134,26 +1134,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>Cgl1436_1113_CAA_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>GTTCAGCCGCAACAAGCATCCGGTCAATGTTGGTCAACACCTCATCAACATAGGCCGGATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-39.10952081444657</v>
+        <v>-15.35644590872187</v>
       </c>
       <c r="E3" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F3" t="n">
-        <v>-18.1094624432537</v>
+        <v>2.229106373412548</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>GTTCAGCCGCAACAAGCATC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>58.75426791495994</v>
+        <v>60.73049429485968</v>
       </c>
       <c r="J3" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K3" t="n">
-        <v>2218</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="4">
@@ -1177,26 +1177,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>Cgl2342_213_GCA_ins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>CCGCGGTAGGTGTCATAGACAGAGTCGAAAATCATCGCACGAGCTGGGGCGTCTTCCTCAAATTCAGAGGTAGGTGCTGGGATAAGTTCAACGACCTTATCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-39.10952081444657</v>
+        <v>16.17069449770298</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F4" t="n">
-        <v>-18.1094624432537</v>
+        <v>-19.90388846243545</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CCGCGGTAGGTGTCATAGAC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>58.75426791495994</v>
+        <v>59.96963054538639</v>
       </c>
       <c r="J4" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K4" t="n">
-        <v>2224</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="5">
@@ -1220,26 +1220,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1790_1647_TCC_sub</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>CGTCAGATAGTCGGCCATCATCAAGTACCTGCAGTAACAACCGCGCAATAGCTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-39.10952081444657</v>
+        <v>0.065108305219609</v>
       </c>
       <c r="E5" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F5" t="n">
-        <v>-18.1094624432537</v>
+        <v>-11.63053719923693</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CGTCAGATAGTCGGCCATCA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1248,13 +1248,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>58.75426791495994</v>
+        <v>59.33146533463281</v>
       </c>
       <c r="J5" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K5" t="n">
-        <v>2221</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="6">
@@ -1263,26 +1263,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>Cgl1386_327_18to15_sub</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>ATGGACAGTGGTTTCGCACACGGTTGGGGAGATGCAACCAACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24.76800258547536</v>
+        <v>-11.9707995496359</v>
       </c>
       <c r="E6" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F6" t="n">
-        <v>-33.85602792369221</v>
+        <v>-8.118725749324938</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ATGGACAGTGGTTTCGCACA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60.31886934013568</v>
+        <v>60.17903159657527</v>
       </c>
       <c r="J6" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K6" t="n">
-        <v>2284</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="7">
@@ -1306,26 +1306,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>AAGAAGGCATGATCACCGCACCGCTGGTGTGGAAGGGTGTGCAGCTCAAACCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24.76800258547536</v>
+        <v>14.29363076887256</v>
       </c>
       <c r="E7" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F7" t="n">
-        <v>-33.85602792369221</v>
+        <v>-11.62686968741247</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AAGAAGGCATGATCACCGCA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>60.31886934013568</v>
+        <v>60.03515163113337</v>
       </c>
       <c r="J7" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K7" t="n">
-        <v>2370</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="8">
@@ -1349,26 +1349,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del</t>
+          <t>Cgl0141_cds_del</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>AATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGAGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.328649887266124</v>
+        <v>-36.41166760327013</v>
       </c>
       <c r="E8" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F8" t="n">
-        <v>-10.82430130279693</v>
+        <v>10.9113119243022</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CCAGCTGCGGTGAATTACAA</t>
+          <t>AATTTCCTGTCCTCCGCAGC</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>58.83558860646889</v>
+        <v>60.67804834335942</v>
       </c>
       <c r="J8" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K8" t="n">
-        <v>2206</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="9">
@@ -1392,26 +1392,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>153019_ecoil_ybeL_ins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>ATCATGCGACCGCTGATCATCGTGTTGATGCTGGTCGTTGGCCTGATCGTGGTGTTCAAACCAAACTTCGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24.76800258547536</v>
+        <v>13.05597175906308</v>
       </c>
       <c r="E9" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F9" t="n">
-        <v>-33.85602792369221</v>
+        <v>-13.85560858732202</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ATCATGCGACCGCTGATCAT</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>60.31886934013568</v>
+        <v>59.96552356176562</v>
       </c>
       <c r="J9" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K9" t="n">
-        <v>2817</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="10">
@@ -1435,26 +1435,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub</t>
+          <t>Cgl0851_ecoli_pgi_sub</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>ATTGTTCGGAAGCTGCCTGTCGCATCGACAATGAAACCAGTCAACAAGGGACCGAAACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.40581710487936</v>
+        <v>5.33478547935897</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F10" t="n">
-        <v>9.709971185883433</v>
+        <v>-4.781835832215563</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
+          <t>ATTGTTCGGAAGCTGCCTGT</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60.03572498371517</v>
+        <v>60.25090138088768</v>
       </c>
       <c r="J10" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K10" t="n">
-        <v>2832</v>
+        <v>3891</v>
       </c>
     </row>
   </sheetData>
@@ -1592,41 +1592,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>Cgl1436_1113_CAA_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>GTTCAGCCGCAACAAGCATCCGGTCAATGTTGGTCAACACCTCATCAACATAGGCCGGATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATCAATGGTGAGTTTCATGTTTTATCCAGCCTGACAAATAGAGAAAACC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-39.10952081444657</v>
+        <v>-15.35644590872187</v>
       </c>
       <c r="E3" t="n">
-        <v>-51.9671254908975</v>
+        <v>12.73484880426571</v>
       </c>
       <c r="F3" t="n">
-        <v>-32.90397740632534</v>
+        <v>12.31259009010478</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>GTTCAGCCGCAACAAGCATC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGTTTTCTCTATTTGTCAGGCTGG</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>58.75426791495994</v>
+        <v>60.73049429485968</v>
       </c>
       <c r="J3" t="n">
-        <v>59.4809229030995</v>
+        <v>59.8432614958748</v>
       </c>
       <c r="K3" t="n">
-        <v>2233</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="4">
@@ -1635,41 +1635,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>Cgl2342_213_GCA_ins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>CCGCGGTAGGTGTCATAGACAGAGTCGAAAATCATCGCACGAGCTGGGGCGTCTTCCTCAAATTCAGAGGTAGGTGCTGGGATAAGTTCAACGACCTTATCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGACAATGAGGCACACAGCAGAGAAGGTAACAAAGGTCTGCACTAAAATCGCCACGATGATAGAGAACGCCAGCACC</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-39.10952081444657</v>
+        <v>16.17069449770298</v>
       </c>
       <c r="E4" t="n">
-        <v>-51.9671254908975</v>
+        <v>-34.68241902366907</v>
       </c>
       <c r="F4" t="n">
-        <v>-32.90397740632534</v>
+        <v>-20.11321665415278</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CCGCGGTAGGTGTCATAGAC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGTGCTGGCGTTCTCTATCA</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>58.75426791495994</v>
+        <v>59.96963054538639</v>
       </c>
       <c r="J4" t="n">
-        <v>59.4809229030995</v>
+        <v>59.824240009292</v>
       </c>
       <c r="K4" t="n">
-        <v>2239</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="5">
@@ -1678,41 +1678,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1790_1647_TCC_sub</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>CGTCAGATAGTCGGCCATCATCAAGTACCTGCAGTAACAACCGCGCAATAGCTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTGCAGCAGCTTTCCCTGACTGCTCCGCTACAAATTCTTGAGCCTTACGCTTACGCTCAATCTCTTTATCGCGCTCAGCT</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-39.10952081444657</v>
+        <v>0.065108305219609</v>
       </c>
       <c r="E5" t="n">
-        <v>-51.9671254908975</v>
+        <v>9.75767997612968</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.90397740632534</v>
+        <v>-28.3232424184703</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CGTCAGATAGTCGGCCATCA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>AGCTGAGCGCGATAAAGAGA</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>58.75426791495994</v>
+        <v>59.33146533463281</v>
       </c>
       <c r="J5" t="n">
-        <v>59.4809229030995</v>
+        <v>59.2586744445905</v>
       </c>
       <c r="K5" t="n">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="6">
@@ -1721,41 +1721,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>Cgl1386_327_18to15_sub</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>ATGGACAGTGGTTTCGCACACGGTTGGGGAGATGCAACCAACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACGCCACGTTTAGTGCTTTCCACGAGGGCAAGATCGCGCCCACATTTT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24.76800258547536</v>
+        <v>-11.9707995496359</v>
       </c>
       <c r="E6" t="n">
-        <v>-51.9671254908975</v>
+        <v>9.75767997612968</v>
       </c>
       <c r="F6" t="n">
-        <v>-50.63914322873023</v>
+        <v>-11.19076900001983</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ATGGACAGTGGTTTCGCACA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>AAAATGTGGGCGCGATCTTG</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60.31886934013568</v>
+        <v>60.17903159657527</v>
       </c>
       <c r="J6" t="n">
-        <v>59.4809229030995</v>
+        <v>59.82899265509542</v>
       </c>
       <c r="K6" t="n">
-        <v>2299</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="7">
@@ -1764,41 +1764,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>AAGAAGGCATGATCACCGCACCGCTGGTGTGGAAGGGTGTGCAGCTCAAACCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGCCAAGGGCGCTGCAGCAGTGTATGCCAATGACGTTTTCGTCCC</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24.76800258547536</v>
+        <v>14.29363076887256</v>
       </c>
       <c r="E7" t="n">
-        <v>-51.9671254908975</v>
+        <v>17.9838849406861</v>
       </c>
       <c r="F7" t="n">
-        <v>-50.63914322873023</v>
+        <v>-47.85663204399901</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AAGAAGGCATGATCACCGCA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGGACGAAAACGTCATTGGC</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>60.31886934013568</v>
+        <v>60.03515163113337</v>
       </c>
       <c r="J7" t="n">
-        <v>59.4809229030995</v>
+        <v>60.10991858903225</v>
       </c>
       <c r="K7" t="n">
-        <v>2385</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="8">
@@ -1807,41 +1807,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del</t>
+          <t>Cgl0141_cds_del</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTATGTGGAGGTGATGAAGAAGGTGAGCA</t>
+          <t>AATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTAGTATTTCGGCAGTTCGTGCGGGGTCTGTAGGTCCAATTTGGTTGTATTCGTGGAAAAGTAACGCTGTTTTTTGTGCCACTTCTTCACGT</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.328649887266124</v>
+        <v>-36.41166760327013</v>
       </c>
       <c r="E8" t="n">
-        <v>-34.68241902366907</v>
+        <v>18.51290590910031</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.149307147617776</v>
+        <v>-32.46295701506696</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CCAGCTGCGGTGAATTACAA</t>
+          <t>AATTTCCTGTCCTCCGCAGC</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TGCTCACCTTCTTCATCACCT</t>
+          <t>ACGTGAAGAAGTGGCACAAA</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>58.83558860646889</v>
+        <v>60.67804834335942</v>
       </c>
       <c r="J8" t="n">
-        <v>59.01923497784952</v>
+        <v>58.25476792140944</v>
       </c>
       <c r="K8" t="n">
-        <v>2206</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="9">
@@ -1850,41 +1850,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>153019_ecoil_ybeL_ins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>ATCATGCGACCGCTGATCATCGTGTTGATGCTGGTCGTTGGCCTGATCGTGGTGTTCAAACCAAACTTCGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGT</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24.76800258547536</v>
+        <v>13.05597175906308</v>
       </c>
       <c r="E9" t="n">
-        <v>-51.9671254908975</v>
+        <v>-12.91046526770441</v>
       </c>
       <c r="F9" t="n">
-        <v>-50.63914322873023</v>
+        <v>9.335084546131895</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ATCATGCGACCGCTGATCAT</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>ACCTGCGTCGGTTGGAAAAG</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>60.31886934013568</v>
+        <v>59.96552356176562</v>
       </c>
       <c r="J9" t="n">
-        <v>59.4809229030995</v>
+        <v>61.16404070711906</v>
       </c>
       <c r="K9" t="n">
-        <v>2832</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="10">
@@ -1893,41 +1893,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub</t>
+          <t>Cgl0851_ecoli_pgi_sub</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTATGTGGAGGTGATGAAGAAGGTGAGCA</t>
+          <t>ATTGTTCGGAAGCTGCCTGTCGCATCGACAATGAAACCAGTCAACAAGGGACCGAAACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGAGGTGGTACAGCTTTTGTTGCAGGGCTTTGAGTTCGGGCAAGTCGGCGAGCGTGGCAAACGCGATGGATATGCGGGAGACC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.40581710487936</v>
+        <v>5.33478547935897</v>
       </c>
       <c r="E10" t="n">
-        <v>-34.68241902366907</v>
+        <v>-36.36748849351375</v>
       </c>
       <c r="F10" t="n">
-        <v>4.635813272382904</v>
+        <v>-27.20845812718983</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
+          <t>ATTGTTCGGAAGCTGCCTGT</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TGCTCACCTTCTTCATCACCT</t>
+          <t>GGTCTCCCGCATATCCATCG</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60.03572498371517</v>
+        <v>60.25090138088768</v>
       </c>
       <c r="J10" t="n">
-        <v>59.01923497784952</v>
+        <v>60.10861455853615</v>
       </c>
       <c r="K10" t="n">
-        <v>2832</v>
+        <v>3886</v>
       </c>
     </row>
   </sheetData>
@@ -2007,41 +2007,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>153019_ecoil_ybeL_ins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGG</t>
+          <t>TGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CCAACGCGCACGGAAATAACCTATCCGTATGTGTCTCTCGGAC</t>
+          <t>CACCGAGAAAACTTAAAAGCTTACGGCTCAAACGGGCG</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70.79561705762274</v>
+        <v>61.77969412819948</v>
       </c>
       <c r="F2" t="n">
-        <v>69.15997576741074</v>
+        <v>66.82983828546162</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
+          <t>TGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAGCTTTTAAGTTTTCTCGGTG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="I2" t="n">
-        <v>28.53426047362882</v>
+        <v>28.16434303574215</v>
       </c>
       <c r="J2" t="n">
-        <v>19.19876280297962</v>
+        <v>16.00190680495393</v>
       </c>
       <c r="K2" t="n">
-        <v>15.35386523044218</v>
+        <v>-4.46107421708092</v>
       </c>
     </row>
     <row r="3">
@@ -2050,41 +2050,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub</t>
+          <t>Cgl0851_ecoli_pgi_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGG</t>
+          <t>CTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgca</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GGCGGGTTAAGTAAGGCGCTCTATCCGTATGTGTCTCTCGGAC</t>
+          <t>ACGACAATAAAGGAGTTTTCttaaccgcgccacgctttat</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.92657339151162</v>
+        <v>65.65561145549503</v>
       </c>
       <c r="F3" t="n">
-        <v>69.53291132347255</v>
+        <v>65.68875731649155</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCC</t>
+          <t>CTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>577</v>
+        <v>1690</v>
       </c>
       <c r="I3" t="n">
-        <v>3.907304465258903</v>
+        <v>-6.328744385405628</v>
       </c>
       <c r="J3" t="n">
-        <v>5.511950789984667</v>
+        <v>7.833001751998154</v>
       </c>
       <c r="K3" t="n">
-        <v>11.64936959074464</v>
+        <v>0.5565284992512141</v>
       </c>
     </row>
   </sheetData>

--- a/PSS/test_output/Design_results.xlsx
+++ b/PSS/test_output/Design_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,26 +470,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>CGL_RS00010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCCTCCGTGGAGCAGGCAAA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AACGCGCACGGAAATAATCGCGGACAGGCCTTCACGAC</t>
+          <t>AAGGGTGAAACTTTTGTGTGCTGTTTTAAAGCTCCTTGGGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTT</t>
+          <t>GAGCTCGGTACCCGGGGATCCTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGACCTGTTTAGCGTGGCGCTAAATTACAAAATTTAGCTCTGCTGCTCTTGAAGACCCATCTTCGGATGGGTCTTTTTGTAATTTAGGGGTTGTGCAGGGATTTTGTGGATAACTTCCGATAAAAGCCCAGCTCACAAAGTTATCCACAACCTTATTCACAGCAGTGTAATTACAAACTTGTAATTCAGTGAGCTTTGTCACAGGAAATGTGATTCCGCGGAACTTTCCGCCCTGTGCACAACTCCCCAAAAATTGGGGATAAGCTGGGGATACATCTGCACAGACTGGGGATAAAATCCGTACCTTGAAATCTATCCACAGATAGACAAAGTTATCCACAATCAATTCACAACCCAGTTCACACGCCAGAATTCCGCGACTACCTTGTAAAACAATGGTCTATCCACAGTTTCAACAGGACTTACTGTTATTACCAATTTTTTACCTAGAAATTAACTAAAAGAAAGAGGGGGTGGGGAGAAAGCTTCGTGGGTGAGCTCAATGCTCACGAAACTTCAGCGAAAGCCTCGAGGAAATTGAAATTACAAATTCCAGATCCGCGAGGAACACAGGTAGGTTGGGTTTGTGTAATTCGGACTGAAGCCACCTGGAGGGTGAACCTTCTTCCAAGAAGTTTTCCCTATCGGTAAACGTCCGGGTTTAGTTAAACGATGAACTATATTTGATCTATATTTCCCAAGGAGCTTTAAAACAGCACACAAAAGTTTCACCCTT</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1045</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3">
@@ -498,26 +498,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl1436_1113_CAA_del</t>
+          <t>CGL_RS00015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCAACAGCTCCTCCTGGGC</t>
+          <t>GAGCTCGGTACCCGGGGATCAGCCCGTTGATTTCCGCA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ATCACCACCACTCAGACGGAGGGTCTGTTTAATGATGCAGCC</t>
+          <t>CGGGTCTGACCTCCTTTTAGTCGGTGGGAAGTGGATTGG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGAT</t>
+          <t>GAGCTCGGTACCCGGGGATCAGCCCGTTGATTTCCGCATCGACGGATCCAAAGCTTTTGTCACTTGTGGTTCTTCCCGCTTCGAGCTGCCACTGATCCCGCTTGATGATTACCCAATGCTGCCCAAGCTTCCTGCAGGTACCGGTTCCATCAACGCCAAGCTGTTCACCGAAGCAGTCTCCCAGGTGGCATCCGCTGCAGGTAAAGATGATTCTTTGCCGATGCTCACCGGTGTCAGCATGGAAATCGTGGGCAACCAGATCAACTTGGCTGCTACTGACCGTTTCCGCCTGGCGCTGCGCACCTTCGAATGGGAAGCAAACGACCCAGAGCTCAACGTTAAACTGCTGATTCCTGCCCGCACCCTGCTGGACAACGCGCGTTCTTTGGATTCCGGTCTCAACGATTCCATCGACATCGCTGTCGGTACCGGCGATCAGGTTGGCCGCGAAGGACTATTCGGCGTTCACACCGATAACCGCGAAACCACCACCAGGCTTCTCGACGCCGATTTCCCCAACATCGCACCACTGCTTCCCAAAGAGCACACCGCGATCGCATCAGTTGAAATCGCACCGCTGGTCGACGCCATCCGCCGCGTATCCCTGGTGGCAGAACGCAACGCTCAGATCGTCTTGCACTTCAGCGAAGGCCAGGTCATCTTGACTGCAGGCGCAACCGAGGCAGGCCACGCGGAAGAAACCCTGCCGTGTGCATTCACCGGCAAGGAACTGACCATCGCGTTCAACCCTGGCTACCTGAAGGATGGACTTTCTGTAGTTCCAACTTCTCGAGCAGTCTTCGGATTCACTGAGCCTTCCCGCCCAGCGATCATGATCCCAGAGCCTGAAGAAATGCCTTCCGCCAACGAAAATGGCATTTTCCAAACTCCGGACACCTATTTCACCTACCTGCTCATGCCAGTGCGCCTGCCAGGCTAAACACAAAAGTTTCACCCTTTTCGCGCCTGACTTTGTACACTTTTCAACCGACAAAGTCAGGCGCGTTATCCAATCCACTTCCCACCGACTAAAAGGAGGTCAGACCCG</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1055</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="4">
@@ -526,26 +526,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl2342_213_GCA_ins</t>
+          <t>CGL_RS00020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGTTTTACCGGACACGCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCCGGGTGTCCTCTGATGCG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GGTGCCTTTTCATGCAGCAAAGAATGATCGTTGCTGGGT</t>
+          <t>CCAAAGGTTGCACATCCAGGAGTGAAATCCGCCCGGTG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACC</t>
+          <t>GAGCTCGGTACCCGGGGATCCGGGTGTCCTCTGATGCGCCATTGGTGCGGGCGCACGCTGAAAACGCCCGAGTTTCGGCGGTTGCTGTTAATCAAGGCCGAGAATTGGCAGCTCACTTGCTGATCAAACCCCATGCTGCGAATCAGGCAAGTTTGAATCGCACAAAAGTCAGGACTCCCCGGGAGCTGCTTGGTGTGGTGAAAACGGTGCTGTTTGCGCCGGAAGATTTGGCATTAGTCAAAGGCGAGCCAGCAGAACGTCGCCGCTATTTAGATGACATTATTGCCACTCGCCAGCCTCGGATGGCGGGGGTCAAGGCCGACTACGACAAGGTGCTGAAACAAAGGAACGCCCTGCTCAAGACCGCCACCATTGCGCTTCGTCGAGGTTACGGCACCGAGGAAGGCGCAGCTGCGCTGAGTACTTTGGATACCTGGGATGGCCAGTTGGCACGCCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCTTTGG</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5">
@@ -554,166 +554,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl1790_1647_TCC_sub</t>
+          <t>CGL_RS00025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGTCAGCGACACGACGAGT</t>
+          <t>GAGCTCGGTACCCGGGGATCCGAGAAATCGAACGCGGC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GCGCGAAGAAGAATAAAATAAGATTATGGCCGCGCTGA</t>
+          <t>GTTAAGTAAGGCGCTTTTTAACGAACACTCCTCGCTACT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCCGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAAGCGCCTTACTTAAC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl1386_327_18to15_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCCGTCTGACTACCCCAGAGA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TTAACCGCGCCACGCCTTAGCCACCTTCTGATTCTTCA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAA</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCAGTATCATCGCAACCCGCAT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CATTGTGTGGCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATG</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0141_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCGGACTCGTGCTGGCAGTC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ATGTACAGGCAATTGTTTTGGCACGACTTGATGTGAGCC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACAT</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGTTGCAGTCGGACTCATC</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GAACGAGTATTTGTATTTCAATGTC</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTC</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCAGGAACTCAACGCAGAAGCA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TCGCTTGCTTATAGGGTCAGG</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGA</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1038</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,26 +628,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>CGL_RS00010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCGCGCGAAAGACCAGGTCT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGG</t>
+          <t>CACACAAAAGTTTCACCCTTTTCGCGCCTGACTTTGTACA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTG</t>
+          <t>CACACAAAAGTTTCACCCTTTTCGCGCCTGACTTTGTACACTTTTCAACCGACAAAGTCAGGCGCGTTATCCAATCCACTTCCCACCGACTAAAAGGAGGTCAGACCCGATGCACATCCGTTCTTTGGAATTACGTGATTACCGTTCCTGGCCTGAACTCAAAGTGGATTTGGAACCTGGAATTACAGTTTTTATCGGCCGCAACGGTTTTGGTAAAACCAACATCGTCGAGGCCATCGGCTATCTTGCGCATTTGTCATCGCATCGGGTGTCCTCTGATGCGCCATTGGTGCGGGCGCACGCTGAAAACGCCCGAGTTTCGGCGGTTGCTGTTAATCAAGGCCGAGAATTGGCAGCTCACTTGCTGATCAAACCCCATGCTGCGAATCAGGCAAGTTTGAATCGCACAAAAGTCAGGACTCCCCGGGAGCTGCTTGGTGTGGTGAAAACGGTGCTGTTTGCGCCGGAAGATTTGGCATTAGTCAAAGGCGAGCCAGCAGAACGTCGCCGCTATTTAGATGACATTATTGCCACTCGCCAGCCTCGGATGGCGGGGGTCAAGGCCGACTACGACAAGGTGCTGAAACAAAGGAACGCCCTGCTCAAGACCGCCACCATTGCGCTTCGTCGAGGTTACGGCACCGAGGAAGGCGCAGCTGCGCTGAGTACTTTGGATACCTGGGATGGCCAGTTGGCACGCCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1014</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="3">
@@ -796,26 +656,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl1436_1113_CAA_del</t>
+          <t>CGL_RS00015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCGCAGGTGCGCTATCCCAA</t>
+          <t>CAGGTCGACTCTAGAGGATCACACCATGCAGACCACCG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGC</t>
+          <t>CTAAAAGGAGGTCAGACCCGCAGATCCAATTGAGCAGGCA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCGATCCTCTAGAGTCGACCTG</t>
+          <t>CTAAAAGGAGGTCAGACCCGCAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1014</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4">
@@ -824,26 +684,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl2342_213_GCA_ins</t>
+          <t>CGL_RS00020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCGTGCAGGTCCCTGGTTT</t>
+          <t>CAGGTCGACTCTAGAGGATCTGTTGGTCTTGCTGCGGT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGAC</t>
+          <t>CCTGGATGTGCAACCTTTGGTGATAAAAACCGTCGAATTGGGG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGGATCCTCTAGAGTCGACCTG</t>
+          <t>CCTGGATGTGCAACCTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACAGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1058</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="5">
@@ -852,166 +712,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl1790_1647_TCC_sub</t>
+          <t>CGL_RS00025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCACTGGTGGCGCAGAAACA</t>
+          <t>CAGGTCGACTCTAGAGGATCCGGCCATAACCCACCAGG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGG</t>
+          <t>TAAAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTGATCCTCTAGAGTCGACCTG</t>
+          <t>TAAAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGGATCCTCTAGAGTCGACCTG</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl1386_327_18to15_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCGCACAACAAGCTGGCGTT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCTCTAGAGTCGACCTG</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCACGTCCTTCCACGGCTTG</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCC</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTGATCCTCTAGAGTCGACCTG</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0141_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCTCAAAGCGCCAGCCATCA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGAGATCCTCTAGAGTCGACCTG</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCCGCACGCCTCATGGATTC</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GCTTTTAAGTTTTCTCGGTGATCC</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGGATCCTCTAGAGTCGACCTG</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCTAGCAACGAACTCGCCGG</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GAAAACTCCTTTATTGTCGT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAGATCCTCTAGAGTCGACCTG</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,26 +811,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>CGL_RS00010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>CGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGACCTGTTTAGCGTGGCGCTAAATTACAAAATTTAGCTCTGCTGCTCTTGAAGACCCATCTTCGGATGGGTCTTTTTGTAATTTAGGGGTTGTGCAGGGATTTTGTGGATAACTTCCGATAAAAGCCCAGCTCACAAAGTTATCCACAACCTTATTCACAGCAGTGTAATTACAAACTTGTAATTCAGTGAGCTTTGTCACAGGAAATGTGATTCCGCGGAACTTTCCGCCCTGTGCACAACTCCCCAAAAATTGGGGATAAGCTGGGGATACATCTGCACAGACTGGGGATAAAATCCGTACCTTGAAATCTATCCACAGATAGACAAAGTTATCCACAATCAATTCACAACCCAGTTCACACGCCAGAATTCCGCGACTACCTTGTAAAACAATGGTCTATCCACAGTTTCAACAGGACTTACTGTTATTACCAATTTTTTACCTAGAAATTAACTAAAAGAAAGAGGGGGTGGGGAGAAAGCTTCGTGGGTGAGCTCAATGCTCACGAAACTTCAGCGAAAGCCTCGAGGAAATTGAAATTACAAATTCCAGATCCGCGAGGAACACAGGTAGGTTGGGTTTGTGTAATTCGGACTGAAGCCACCTGGAGGGTGAACCTTCTTCCAAGAAGTTTTCCCTATCGGTAAACGTCCGGGTTTAGTTAAACGATGAACTATATTTGATCTATATTTCCCAAGGAGCTTTAAAACAGCACACAAAAGTTTCACCCTTTTCGCGCCTGACTTTGTACACTTTTCAACCGACAAAGTCAGGCGCGTTATCCAATCCACTTCCCACCGACTAAAAGGAGGTCAGACCCGATGCACATCCGTTCTTTGGAATTACGTGATTACCGTTCCTGGCCTGAACTCAAAGTGGATTTGGAACCTGGAATTACAGTTTTTATCGGCCGCAACGGTTTTGGTAAAACCAACATCGTCGAGGCCATCGGCTATCTTGCGCATTTGTCATCGCATCGGGTGTCCTCTGATGCGCCATTGGTGCGGGCGCACGCTGAAAACGCCCGAGTTTCGGCGGTTGCTGTTAATCAAGGCCGAGAATTGGCAGCTCACTTGCTGATCAAACCCCATGCTGCGAATCAGGCAAGTTTGAATCGCACAAAAGTCAGGACTCCCCGGGAGCTGCTTGGTGTGGTGAAAACGGTGCTGTTTGCGCCGGAAGATTTGGCATTAGTCAAAGGCGAGCCAGCAGAACGTCGCCGCTATTTAGATGACATTATTGCCACTCGCCAGCCTCGGATGGCGGGGGTCAAGGCCGACTACGACAAGGTGCTGAAACAAAGGAACGCCCTGCTCAAGACCGCCACCATTGCGCTTCGTCGAGGTTACGGCACCGAGGAAGGCGCAGCTGCGCTGAGTACTTTGGATACCTGGGATGGCCAGTTGGCACGCCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-39.10952081444657</v>
+        <v>-7.534531773090975</v>
       </c>
       <c r="E2" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F2" t="n">
-        <v>-18.1094624432537</v>
+        <v>-7.360457192713966</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CGCGATATCCTCCCAGAACC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1119,13 +839,13 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>58.75426791495994</v>
+        <v>60.03815908627445</v>
       </c>
       <c r="J2" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K2" t="n">
-        <v>2221</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="3">
@@ -1134,26 +854,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl1436_1113_CAA_del</t>
+          <t>CGL_RS00015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GTTCAGCCGCAACAAGCATCCGGTCAATGTTGGTCAACACCTCATCAACATAGGCCGGATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>TACGACGTATCCACCCGAGTTCGCCTCTCAGCTGAGGTTTCTCAGCCAGGTCGCATCGCAGTAGCCGGCAAGCTGCTGTCTGAAATCACAGGATCTTTGCCCAACAAGCCCGTTGATTTCCGCATCGACGGATCCAAAGCTTTTGTCACTTGTGGTTCTTCCCGCTTCGAGCTGCCACTGATCCCGCTTGATGATTACCCAATGCTGCCCAAGCTTCCTGCAGGTACCGGTTCCATCAACGCCAAGCTGTTCACCGAAGCAGTCTCCCAGGTGGCATCCGCTGCAGGTAAAGATGATTCTTTGCCGATGCTCACCGGTGTCAGCATGGAAATCGTGGGCAACCAGATCAACTTGGCTGCTACTGACCGTTTCCGCCTGGCGCTGCGCACCTTCGAATGGGAAGCAAACGACCCAGAGCTCAACGTTAAACTGCTGATTCCTGCCCGCACCCTGCTGGACAACGCGCGTTCTTTGGATTCCGGTCTCAACGATTCCATCGACATCGCTGTCGGTACCGGCGATCAGGTTGGCCGCGAAGGACTATTCGGCGTTCACACCGATAACCGCGAAACCACCACCAGGCTTCTCGACGCCGATTTCCCCAACATCGCACCACTGCTTCCCAAAGAGCACACCGCGATCGCATCAGTTGAAATCGCACCGCTGGTCGACGCCATCCGCCGCGTATCCCTGGTGGCAGAACGCAACGCTCAGATCGTCTTGCACTTCAGCGAAGGCCAGGTCATCTTGACTGCAGGCGCAACCGAGGCAGGCCACGCGGAAGAAACCCTGCCGTGTGCATTCACCGGCAAGGAACTGACCATCGCGTTCAACCCTGGCTACCTGAAGGATGGACTTTCTGTAGTTCCAACTTCTCGAGCAGTCTTCGGATTCACTGAGCCTTCCCGCCCAGCGATCATGATCCCAGAGCCTGAAGAAATGCCTTCCGCCAACGAAAATGGCATTTTCCAAACTCCGGACACCTATTTCACCTACCTGCTCATGCCAGTGCGCCTGCCAGGCTAAACACAAAAGTTTCACCCTTTTCGCGCCTGACTTTGTACACTTTTCAACCGACAAAGTCAGGCGCGTTATCCAATCCACTTCCCACCGACTAAAAGGAGGTCAGACCCGCAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-15.35644590872187</v>
+        <v>-1.315988191490248</v>
       </c>
       <c r="E3" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F3" t="n">
-        <v>2.229106373412548</v>
+        <v>-34.75912094495504</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GTTCAGCCGCAACAAGCATC</t>
+          <t>TACGACGTATCCACCCGAGT</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1162,13 +882,13 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.73049429485968</v>
+        <v>60.10770297561146</v>
       </c>
       <c r="J3" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K3" t="n">
-        <v>2204</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="4">
@@ -1177,26 +897,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl2342_213_GCA_ins</t>
+          <t>CGL_RS00020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CCGCGGTAGGTGTCATAGACAGAGTCGAAAATCATCGCACGAGCTGGGGCGTCTTCCTCAAATTCAGAGGTAGGTGCTGGGATAAGTTCAACGACCTTATCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>TTACCGTTCCTGGCCTGAACTCAAAGTGGATTTGGAACCTGGAATTACAGTTTTTATCGGCCGCAACGGTTTTGGTAAAACCAACATCGTCGAGGCCATCGGCTATCTTGCGCATTTGTCATCGCATCGGGTGTCCTCTGATGCGCCATTGGTGCGGGCGCACGCTGAAAACGCCCGAGTTTCGGCGGTTGCTGTTAATCAAGGCCGAGAATTGGCAGCTCACTTGCTGATCAAACCCCATGCTGCGAATCAGGCAAGTTTGAATCGCACAAAAGTCAGGACTCCCCGGGAGCTGCTTGGTGTGGTGAAAACGGTGCTGTTTGCGCCGGAAGATTTGGCATTAGTCAAAGGCGAGCCAGCAGAACGTCGCCGCTATTTAGATGACATTATTGCCACTCGCCAGCCTCGGATGGCGGGGGTCAAGGCCGACTACGACAAGGTGCTGAAACAAAGGAACGCCCTGCTCAAGACCGCCACCATTGCGCTTCGTCGAGGTTACGGCACCGAGGAAGGCGCAGCTGCGCTGAGTACTTTGGATACCTGGGATGGCCAGTTGGCACGCCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACAGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.17069449770298</v>
+        <v>17.70188791806402</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F4" t="n">
-        <v>-19.90388846243545</v>
+        <v>-22.90019854211479</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CCGCGGTAGGTGTCATAGAC</t>
+          <t>TTACCGTTCCTGGCCTGAAC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1205,13 +925,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>59.96963054538639</v>
+        <v>59.9642605059264</v>
       </c>
       <c r="J4" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K4" t="n">
-        <v>2282</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="5">
@@ -1220,26 +940,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl1790_1647_TCC_sub</t>
+          <t>CGL_RS00025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CGTCAGATAGTCGGCCATCATCAAGTACCTGCAGTAACAACCGCGCAATAGCTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
+          <t>CACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.065108305219609</v>
+        <v>1.665486138077369</v>
       </c>
       <c r="E5" t="n">
         <v>-0.8134906363008551</v>
       </c>
       <c r="F5" t="n">
-        <v>-11.63053719923693</v>
+        <v>-22.90019854211479</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CGTCAGATAGTCGGCCATCA</t>
+          <t>CACCATCGATCAAGGCCTGT</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1248,228 +968,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>59.33146533463281</v>
+        <v>60.10750822183508</v>
       </c>
       <c r="J5" t="n">
         <v>59.19563605279382</v>
       </c>
       <c r="K5" t="n">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl1386_327_18to15_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ATGGACAGTGGTTTCGCACACGGTTGGGGAGATGCAACCAACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-11.9707995496359</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.8134906363008551</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-8.118725749324938</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ATGGACAGTGGTTTCGCACA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>60.17903159657527</v>
-      </c>
-      <c r="J6" t="n">
-        <v>59.19563605279382</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AAGAAGGCATGATCACCGCACCGCTGGTGTGGAAGGGTGTGCAGCTCAAACCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>14.29363076887256</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.8134906363008551</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-11.62686968741247</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AAGAAGGCATGATCACCGCA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>60.03515163113337</v>
-      </c>
-      <c r="J7" t="n">
-        <v>59.19563605279382</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0141_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGAGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-36.41166760327013</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.8134906363008551</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.9113119243022</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AATTTCCTGTCCTCCGCAGC</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>60.67804834335942</v>
-      </c>
-      <c r="J8" t="n">
-        <v>59.19563605279382</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ATCATGCGACCGCTGATCATCGTGTTGATGCTGGTCGTTGGCCTGATCGTGGTGTTCAAACCAAACTTCGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>13.05597175906308</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.8134906363008551</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-13.85560858732202</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ATCATGCGACCGCTGATCAT</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>59.96552356176562</v>
-      </c>
-      <c r="J9" t="n">
-        <v>59.19563605279382</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ATTGTTCGGAAGCTGCCTGTCGCATCGACAATGAAACCAGTCAACAAGGGACCGAAACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAGATCCTCTAGAGTCGACCTGCAGGCATGCAAGCTTGGCACTGGCCGTCGTTTTACAACGTCGTGACTGGGAAAACCCTGGCGTTACCCAACTTAATCGCCTTGCAGCACA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5.33478547935897</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.8134906363008551</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-4.781835832215563</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ATTGTTCGGAAGCTGCCTGT</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>60.25090138088768</v>
-      </c>
-      <c r="J10" t="n">
-        <v>59.19563605279382</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3891</v>
+        <v>2264</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,41 +1054,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>CGL_RS00010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
+          <t>CGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGACCTGTTTAGCGTGGCGCTAAATTACAAAATTTAGCTCTGCTGCTCTTGAAGACCCATCTTCGGATGGGTCTTTTTGTAATTTAGGGGTTGTGCAGGGATTTTGTGGATAACTTCCGATAAAAGCCCAGCTCACAAAGTTATCCACAACCTTATTCACAGCAGTGTAATTACAAACTTGTAATTCAGTGAGCTTTGTCACAGGAAATGTGATTCCGCGGAACTTTCCGCCCTGTGCACAACTCCCCAAAAATTGGGGATAAGCTGGGGATACATCTGCACAGACTGGGGATAAAATCCGTACCTTGAAATCTATCCACAGATAGACAAAGTTATCCACAATCAATTCACAACCCAGTTCACACGCCAGAATTCCGCGACTACCTTGTAAAACAATGGTCTATCCACAGTTTCAACAGGACTTACTGTTATTACCAATTTTTTACCTAGAAATTAACTAAAAGAAAGAGGGGGTGGGGAGAAAGCTTCGTGGGTGAGCTCAATGCTCACGAAACTTCAGCGAAAGCCTCGAGGAAATTGAAATTACAAATTCCAGATCCGCGAGGAACACAGGTAGGTTGGGTTTGTGTAATTCGGACTGAAGCCACCTGGAGGGTGAACCTTCTTCCAAGAAGTTTTCCCTATCGGTAAACGTCCGGGTTTAGTTAAACGATGAACTATATTTGATCTATATTTCCCAAGGAGCTTTAAAACAGCACACAAAAGTTTCACCCTTTTCGCGCCTGACTTTGTACACTTTTCAACCGACAAAGTCAGGCGCGTTATCCAATCCACTTCCCACCGACTAAAAGGAGGTCAGACCCGATGCACATCCGTTCTTTGGAATTACGTGATTACCGTTCCTGGCCTGAACTCAAAGTGGATTTGGAACCTGGAATTACAGTTTTTATCGGCCGCAACGGTTTTGGTAAAACCAACATCGTCGAGGCCATCGGCTATCTTGCGCATTTGTCATCGCATCGGGTGTCCTCTGATGCGCCATTGGTGCGGGCGCACGCTGAAAACGCCCGAGTTTCGGCGGTTGCTGTTAATCAAGGCCGAGAATTGGCAGCTCACTTGCTGATCAAACCCCATGCTGCGAATCAGGCAAGTTTGAATCGCACAAAAGTCAGGACTCCCCGGGAGCTGCTTGGTGTGGTGAAAACGGTGCTGTTTGCGCCGGAAGATTTGGCATTAGTCAAAGGCGAGCCAGCAGAACGTCGCCGCTATTTAGATGACATTATTGCCACTCGCCAGCCTCGGATGGCGGGGGTCAAGGCCGACTACGACAAGGTGCTGAAACAAAGGAACGCCCTGCTCAAGACCGCCACCATTGCGCTTCGTCGAGGTTACGGCACCGAGGAAGGCGCAGCTGCGCTGAGTACTTTGGATACCTGGGATGGCCAGTTGGCACGCCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCG</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-39.10952081444657</v>
+        <v>-7.534531773090975</v>
       </c>
       <c r="E2" t="n">
-        <v>-51.9671254908975</v>
+        <v>-30.6491934268995</v>
       </c>
       <c r="F2" t="n">
-        <v>-32.90397740632534</v>
+        <v>-24.07317530377574</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CGCGATATCCTCCCAGAACC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>CGCTATGCCCACGAGTTTTT</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>58.75426791495994</v>
+        <v>60.03815908627445</v>
       </c>
       <c r="J2" t="n">
-        <v>59.4809229030995</v>
+        <v>59.19750588098987</v>
       </c>
       <c r="K2" t="n">
-        <v>2236</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="3">
@@ -1592,41 +1097,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl1436_1113_CAA_del</t>
+          <t>CGL_RS00015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GTTCAGCCGCAACAAGCATCCGGTCAATGTTGGTCAACACCTCATCAACATAGGCCGGATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATCAATGGTGAGTTTCATGTTTTATCCAGCCTGACAAATAGAGAAAACC</t>
+          <t>TACGACGTATCCACCCGAGTTCGCCTCTCAGCTGAGGTTTCTCAGCCAGGTCGCATCGCAGTAGCCGGCAAGCTGCTGTCTGAAATCACAGGATCTTTGCCCAACAAGCCCGTTGATTTCCGCATCGACGGATCCAAAGCTTTTGTCACTTGTGGTTCTTCCCGCTTCGAGCTGCCACTGATCCCGCTTGATGATTACCCAATGCTGCCCAAGCTTCCTGCAGGTACCGGTTCCATCAACGCCAAGCTGTTCACCGAAGCAGTCTCCCAGGTGGCATCCGCTGCAGGTAAAGATGATTCTTTGCCGATGCTCACCGGTGTCAGCATGGAAATCGTGGGCAACCAGATCAACTTGGCTGCTACTGACCGTTTCCGCCTGGCGCTGCGCACCTTCGAATGGGAAGCAAACGACCCAGAGCTCAACGTTAAACTGCTGATTCCTGCCCGCACCCTGCTGGACAACGCGCGTTCTTTGGATTCCGGTCTCAACGATTCCATCGACATCGCTGTCGGTACCGGCGATCAGGTTGGCCGCGAAGGACTATTCGGCGTTCACACCGATAACCGCGAAACCACCACCAGGCTTCTCGACGCCGATTTCCCCAACATCGCACCACTGCTTCCCAAAGAGCACACCGCGATCGCATCAGTTGAAATCGCACCGCTGGTCGACGCCATCCGCCGCGTATCCCTGGTGGCAGAACGCAACGCTCAGATCGTCTTGCACTTCAGCGAAGGCCAGGTCATCTTGACTGCAGGCGCAACCGAGGCAGGCCACGCGGAAGAAACCCTGCCGTGTGCATTCACCGGCAAGGAACTGACCATCGCGTTCAACCCTGGCTACCTGAAGGATGGACTTTCTGTAGTTCCAACTTCTCGAGCAGTCTTCGGATTCACTGAGCCTTCCCGCCCAGCGATCATGATCCCAGAGCCTGAAGAAATGCCTTCCGCCAACGAAAATGGCATTTTCCAAACTCCGGACACCTATTTCACCTACCTGCTCATGCCAGTGCGCCTGCCAGGCTAAACACAAAAGTTTCACCCTTTTCGCGCCTGACTTTGTACACTTTTCAACCGACAAAGTCAGGCGCGTTATCCAATCCACTTCCCACCGACTAAAAGGAGGTCAGACCCGCAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-15.35644590872187</v>
+        <v>-1.315988191490248</v>
       </c>
       <c r="E3" t="n">
-        <v>12.73484880426571</v>
+        <v>-14.1097257964247</v>
       </c>
       <c r="F3" t="n">
-        <v>12.31259009010478</v>
+        <v>-37.9463350662721</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GTTCAGCCGCAACAAGCATC</t>
+          <t>TACGACGTATCCACCCGAGT</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>GGTTTTCTCTATTTGTCAGGCTGG</t>
+          <t>TTGCCGCCTTCGATCAACTC</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.73049429485968</v>
+        <v>60.10770297561146</v>
       </c>
       <c r="J3" t="n">
-        <v>59.8432614958748</v>
+        <v>61.01927821111792</v>
       </c>
       <c r="K3" t="n">
-        <v>2206</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="4">
@@ -1635,41 +1140,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl2342_213_GCA_ins</t>
+          <t>CGL_RS00020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CCGCGGTAGGTGTCATAGACAGAGTCGAAAATCATCGCACGAGCTGGGGCGTCTTCCTCAAATTCAGAGGTAGGTGCTGGGATAAGTTCAACGACCTTATCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGACAATGAGGCACACAGCAGAGAAGGTAACAAAGGTCTGCACTAAAATCGCCACGATGATAGAGAACGCCAGCACC</t>
+          <t>TTACCGTTCCTGGCCTGAACTCAAAGTGGATTTGGAACCTGGAATTACAGTTTTTATCGGCCGCAACGGTTTTGGTAAAACCAACATCGTCGAGGCCATCGGCTATCTTGCGCATTTGTCATCGCATCGGGTGTCCTCTGATGCGCCATTGGTGCGGGCGCACGCTGAAAACGCCCGAGTTTCGGCGGTTGCTGTTAATCAAGGCCGAGAATTGGCAGCTCACTTGCTGATCAAACCCCATGCTGCGAATCAGGCAAGTTTGAATCGCACAAAAGTCAGGACTCCCCGGGAGCTGCTTGGTGTGGTGAAAACGGTGCTGTTTGCGCCGGAAGATTTGGCATTAGTCAAAGGCGAGCCAGCAGAACGTCGCCGCTATTTAGATGACATTATTGCCACTCGCCAGCCTCGGATGGCGGGGGTCAAGGCCGACTACGACAAGGTGCTGAAACAAAGGAACGCCCTGCTCAAGACCGCCACCATTGCGCTTCGTCGAGGTTACGGCACCGAGGAAGGCGCAGCTGCGCTGAGTACTTTGGATACCTGGGATGGCCAGTTGGCACGCCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCG</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.17069449770298</v>
+        <v>17.70188791806402</v>
       </c>
       <c r="E4" t="n">
-        <v>-34.68241902366907</v>
+        <v>-9.433738648951874</v>
       </c>
       <c r="F4" t="n">
-        <v>-20.11321665415278</v>
+        <v>-17.0950623962338</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CCGCGGTAGGTGTCATAGAC</t>
+          <t>TTACCGTTCCTGGCCTGAAC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GGTGCTGGCGTTCTCTATCA</t>
+          <t>CGCGGGTGTTAATGGTGTTG</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>59.96963054538639</v>
+        <v>59.9642605059264</v>
       </c>
       <c r="J4" t="n">
-        <v>59.824240009292</v>
+        <v>60.10996432023796</v>
       </c>
       <c r="K4" t="n">
-        <v>2278</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="5">
@@ -1678,256 +1183,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl1790_1647_TCC_sub</t>
+          <t>CGL_RS00025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CGTCAGATAGTCGGCCATCATCAAGTACCTGCAGTAACAACCGCGCAATAGCTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTGCAGCAGCTTTCCCTGACTGCTCCGCTACAAATTCTTGAGCCTTACGCTTACGCTCAATCTCTTTATCGCGCTCAGCT</t>
+          <t>CACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATTCCATAAGCACAATTCTTTGGACGATCTCACCGCGCAGGACATCAACTATGTGGAGGTGATGAAGAAGGTGAGCA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.065108305219609</v>
+        <v>1.665486138077369</v>
       </c>
       <c r="E5" t="n">
-        <v>9.75767997612968</v>
+        <v>-34.68241902366907</v>
       </c>
       <c r="F5" t="n">
-        <v>-28.3232424184703</v>
+        <v>-35.39130732650941</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CGTCAGATAGTCGGCCATCA</t>
+          <t>CACCATCGATCAAGGCCTGT</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AGCTGAGCGCGATAAAGAGA</t>
+          <t>TGCTCACCTTCTTCATCACCT</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>59.33146533463281</v>
+        <v>60.10750822183508</v>
       </c>
       <c r="J5" t="n">
-        <v>59.2586744445905</v>
+        <v>59.01923497784952</v>
       </c>
       <c r="K5" t="n">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl1386_327_18to15_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ATGGACAGTGGTTTCGCACACGGTTGGGGAGATGCAACCAACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACGCCACGTTTAGTGCTTTCCACGAGGGCAAGATCGCGCCCACATTTT</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-11.9707995496359</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.75767997612968</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-11.19076900001983</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ATGGACAGTGGTTTCGCACA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AAAATGTGGGCGCGATCTTG</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>60.17903159657527</v>
-      </c>
-      <c r="J6" t="n">
-        <v>59.82899265509542</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AAGAAGGCATGATCACCGCACCGCTGGTGTGGAAGGGTGTGCAGCTCAAACCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGCCAAGGGCGCTGCAGCAGTGTATGCCAATGACGTTTTCGTCCC</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>14.29363076887256</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17.9838849406861</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-47.85663204399901</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AAGAAGGCATGATCACCGCA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>GGGACGAAAACGTCATTGGC</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>60.03515163113337</v>
-      </c>
-      <c r="J7" t="n">
-        <v>60.10991858903225</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0141_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTAGTATTTCGGCAGTTCGTGCGGGGTCTGTAGGTCCAATTTGGTTGTATTCGTGGAAAAGTAACGCTGTTTTTTGTGCCACTTCTTCACGT</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-36.41166760327013</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18.51290590910031</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-32.46295701506696</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AATTTCCTGTCCTCCGCAGC</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ACGTGAAGAAGTGGCACAAA</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>60.67804834335942</v>
-      </c>
-      <c r="J8" t="n">
-        <v>58.25476792140944</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ATCATGCGACCGCTGATCATCGTGTTGATGCTGGTCGTTGGCCTGATCGTGGTGTTCAAACCAAACTTCGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGT</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>13.05597175906308</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-12.91046526770441</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.335084546131895</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ATCATGCGACCGCTGATCAT</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ACCTGCGTCGGTTGGAAAAG</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>59.96552356176562</v>
-      </c>
-      <c r="J9" t="n">
-        <v>61.16404070711906</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ATTGTTCGGAAGCTGCCTGTCGCATCGACAATGAAACCAGTCAACAAGGGACCGAAACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGAGGTGGTACAGCTTTTGTTGCAGGGCTTTGAGTTCGGGCAAGTCGGCGAGCGTGGCAAACGCGATGGATATGCGGGAGACC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5.33478547935897</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-36.36748849351375</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-27.20845812718983</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ATTGTTCGGAAGCTGCCTGT</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>GGTCTCCCGCATATCCATCG</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>60.25090138088768</v>
-      </c>
-      <c r="J10" t="n">
-        <v>60.10861455853615</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3886</v>
+        <v>2264</v>
       </c>
     </row>
   </sheetData>
@@ -1941,153 +1231,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_WHOLE_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_WHOLE_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_TM</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_TM</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRODUCT_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_PRODUCT_SIZE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_TM_HOMODIMER</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_TM_HOMODIMER</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_PAIR_TM_HETERODIMER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACC</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CACCGAGAAAACTTAAAAGCTTACGGCTCAAACGGGCG</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>61.77969412819948</v>
-      </c>
-      <c r="F2" t="n">
-        <v>66.82983828546162</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>TGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAGCTTTTAAGTTTTCTCGGTG</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>523</v>
-      </c>
-      <c r="I2" t="n">
-        <v>28.16434303574215</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16.00190680495393</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-4.46107421708092</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgca</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ACGACAATAAAGGAGTTTTCttaaccgcgccacgctttat</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>65.65561145549503</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65.68875731649155</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGT</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1690</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-6.328744385405628</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.833001751998154</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5565284992512141</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>